--- a/results_repeated_boost_ensemble/data_1_1year_all_leagues_resultados_folds.xlsx
+++ b/results_repeated_boost_ensemble/data_1_1year_all_leagues_resultados_folds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,131 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.4816753926701571</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4748640682003115</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4887068916430998</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4748640682003115</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4767611871155474</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7171468980727299</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5863874345549738</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5817217265493128</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6042160737812911</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5817217265493128</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5891768632008091</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7318650924738858</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5916230366492147</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5822013235806339</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.61044266191325</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5822013235806339</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5908563649784783</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7716426777796431</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.6335078534031413</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.639747608713126</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6394723711107893</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.639747608713126</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.639575001960323</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8071105532540471</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5758915414087827</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5921690676252793</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5758915414087827</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5820886515512116</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.753448780578598</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
